--- a/Non UI/data/Conjugation/Regular.xlsx
+++ b/Non UI/data/Conjugation/Regular.xlsx
@@ -134,9 +134,6 @@
     <t>פְּקַדְתֶּם</t>
   </si>
   <si>
-    <t>פְּקַדְתֶּנ</t>
-  </si>
-  <si>
     <t>פָּקַדְנוּ</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>infinitive absolute</t>
+  </si>
+  <si>
+    <t>פְּקַדְתֶּן</t>
   </si>
 </sst>
 </file>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:B37"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,7 +625,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -639,7 +639,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -773,7 +773,7 @@
     </row>
     <row r="21" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -983,7 +983,7 @@
     </row>
     <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>

--- a/Non UI/data/Conjugation/Regular.xlsx
+++ b/Non UI/data/Conjugation/Regular.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="227">
   <si>
     <t>perfect</t>
   </si>
@@ -113,9 +113,6 @@
     <t>passive participle</t>
   </si>
   <si>
-    <t>פָקַד</t>
-  </si>
-  <si>
     <t>פָּקְדָה</t>
   </si>
   <si>
@@ -147,13 +144,574 @@
   </si>
   <si>
     <t>פְּקַדְתֶּן</t>
+  </si>
+  <si>
+    <t>יִפְקֹד</t>
+  </si>
+  <si>
+    <t>תִפְקֹד</t>
+  </si>
+  <si>
+    <t>תִפְקְדִי</t>
+  </si>
+  <si>
+    <t>אֶפְקֹד</t>
+  </si>
+  <si>
+    <t>יִפְקְדוּ</t>
+  </si>
+  <si>
+    <t>תִפְקֹדְנָה</t>
+  </si>
+  <si>
+    <t>תִפְקְדוּ</t>
+  </si>
+  <si>
+    <t>נִפְקֹד</t>
+  </si>
+  <si>
+    <t>וַיִפְקֹד</t>
+  </si>
+  <si>
+    <t>אֶפְקְדָה</t>
+  </si>
+  <si>
+    <t>פְּקֹד</t>
+  </si>
+  <si>
+    <t>פִּקְדִי</t>
+  </si>
+  <si>
+    <t>פִּקְדוּ</t>
+  </si>
+  <si>
+    <t>פְּקֹדְנָה</t>
+  </si>
+  <si>
+    <t>פָּקַד</t>
+  </si>
+  <si>
+    <t>פֹּקֵד</t>
+  </si>
+  <si>
+    <t>פֹּקֶדֶת</t>
+  </si>
+  <si>
+    <t>פֹּקְדִים</t>
+  </si>
+  <si>
+    <t>פֹּקְדוֹת</t>
+  </si>
+  <si>
+    <t>פֹּקָוּד</t>
+  </si>
+  <si>
+    <t>פְּקוּדָה</t>
+  </si>
+  <si>
+    <t>פְּקוּדִים</t>
+  </si>
+  <si>
+    <t>פְּקוּדוֹת</t>
+  </si>
+  <si>
+    <t>פְּקֹד</t>
+  </si>
+  <si>
+    <t>פָּקוֹד</t>
+  </si>
+  <si>
+    <t>נִפְקַד</t>
+  </si>
+  <si>
+    <t>נִפְקְדָה</t>
+  </si>
+  <si>
+    <t>נִפְקַדְתָּ</t>
+  </si>
+  <si>
+    <t>נִפְקַדְתְּ</t>
+  </si>
+  <si>
+    <t>נִפְקַדְתִּי</t>
+  </si>
+  <si>
+    <t>נִפְקְדוּ</t>
+  </si>
+  <si>
+    <t>נִפְקַדְתֶּם</t>
+  </si>
+  <si>
+    <t>נִפְקַדְתֶּן</t>
+  </si>
+  <si>
+    <t>תִפָּקְדִי</t>
+  </si>
+  <si>
+    <t>יִפָּקְדוּ</t>
+  </si>
+  <si>
+    <t>תִפָּקְדוּ</t>
+  </si>
+  <si>
+    <t>יִפָּקֵד</t>
+  </si>
+  <si>
+    <t>תִפָּקֵד</t>
+  </si>
+  <si>
+    <t>אֶפָּקֵד</t>
+  </si>
+  <si>
+    <t>נִפָּקֵד</t>
+  </si>
+  <si>
+    <t>תִפָּקַדְנָה</t>
+  </si>
+  <si>
+    <t>וַיִּפָּקֵד</t>
+  </si>
+  <si>
+    <t>אֶפָּקְדָה</t>
+  </si>
+  <si>
+    <t>הִפָּקֵד</t>
+  </si>
+  <si>
+    <t>הִפָּקְדִי</t>
+  </si>
+  <si>
+    <t>הִפָּקְדוּ</t>
+  </si>
+  <si>
+    <t>הִפָּקַדְנָה</t>
+  </si>
+  <si>
+    <t>נִפְקָד</t>
+  </si>
+  <si>
+    <t>נִפְקָדָה</t>
+  </si>
+  <si>
+    <t>נִפְקָדִים</t>
+  </si>
+  <si>
+    <t>נִפְקָדוֹת</t>
+  </si>
+  <si>
+    <t>הִפָקֵד</t>
+  </si>
+  <si>
+    <t>הִפָּקוֹד, נִפְקוֹד</t>
+  </si>
+  <si>
+    <t>יְפַקֵּד</t>
+  </si>
+  <si>
+    <t>תְּפַקֵּד</t>
+  </si>
+  <si>
+    <t>תְּפַקְּדִי</t>
+  </si>
+  <si>
+    <t>אֲפַקֵּד</t>
+  </si>
+  <si>
+    <t>יְפַקְּדוּ</t>
+  </si>
+  <si>
+    <t>תְּפַקֵּדְנָה</t>
+  </si>
+  <si>
+    <t>תְּפַקְּדוּ</t>
+  </si>
+  <si>
+    <t>נְפַקֵּד</t>
+  </si>
+  <si>
+    <t>וַיְפַקֵּד</t>
+  </si>
+  <si>
+    <t>אֲפַקְּדָה</t>
+  </si>
+  <si>
+    <t>פַּקֵּד</t>
+  </si>
+  <si>
+    <t>מְפַקֵּד</t>
+  </si>
+  <si>
+    <t>מְפַקְּדִים</t>
+  </si>
+  <si>
+    <t>מְפַקְּדוֹת</t>
+  </si>
+  <si>
+    <t>פַּקּוֹד</t>
+  </si>
+  <si>
+    <t>פִּקֵּד</t>
+  </si>
+  <si>
+    <t>פִּקְּדָה</t>
+  </si>
+  <si>
+    <t>פִּקַּדְתָּ</t>
+  </si>
+  <si>
+    <t>פִּקַּדְתְּ</t>
+  </si>
+  <si>
+    <t>פִּקַּדְתִּי</t>
+  </si>
+  <si>
+    <t>פִּקְּדוּ</t>
+  </si>
+  <si>
+    <t>פִּקַּדְתֶּם</t>
+  </si>
+  <si>
+    <t>פִּקַּדְתֶּן</t>
+  </si>
+  <si>
+    <t>פִּקַּדְנוּ</t>
+  </si>
+  <si>
+    <t>פַּקְּדִי</t>
+  </si>
+  <si>
+    <t>פַּקְּדוּ</t>
+  </si>
+  <si>
+    <t>פֻּקַּד</t>
+  </si>
+  <si>
+    <t>פֻּקְּדָה</t>
+  </si>
+  <si>
+    <t>פֻּקַּדְתָּ</t>
+  </si>
+  <si>
+    <t>פֻּקַּדְתְּ</t>
+  </si>
+  <si>
+    <t>פֻּקַּדְתִּי</t>
+  </si>
+  <si>
+    <t>פֻּקְּדוּ</t>
+  </si>
+  <si>
+    <t>פֻּקַּדְתֶּם</t>
+  </si>
+  <si>
+    <t>פֻּקַּדְתֶּן</t>
+  </si>
+  <si>
+    <t>פֻּקַּדְנוּ</t>
+  </si>
+  <si>
+    <t>יְפֻקַּד</t>
+  </si>
+  <si>
+    <t>תְּפֻקַּד</t>
+  </si>
+  <si>
+    <t>תְּפֻקְּדִי</t>
+  </si>
+  <si>
+    <t>אֲפֻקַּד</t>
+  </si>
+  <si>
+    <t>יְפֻקְּדוּ</t>
+  </si>
+  <si>
+    <t>תְּפֻקַּדְנָה</t>
+  </si>
+  <si>
+    <t>תְּפֻקְּדוּ</t>
+  </si>
+  <si>
+    <t>נְפֻקַּד</t>
+  </si>
+  <si>
+    <t>וַיְפֻקַּד</t>
+  </si>
+  <si>
+    <t>אֲפֻקְּדָה</t>
+  </si>
+  <si>
+    <t>מְפֻקָּד</t>
+  </si>
+  <si>
+    <t>מְפֻקָּדָת</t>
+  </si>
+  <si>
+    <t>מְפֻקָּדִים</t>
+  </si>
+  <si>
+    <t>מְפֻקָּדוֹת</t>
+  </si>
+  <si>
+    <t>פֻּקֹּד</t>
+  </si>
+  <si>
+    <t>הִתְפַּקֵּד</t>
+  </si>
+  <si>
+    <t>הִתְפַּקְּדָה</t>
+  </si>
+  <si>
+    <t>הִתְפַּקַּדְתָּ</t>
+  </si>
+  <si>
+    <t>הִתְפַּקַּדְתְּ</t>
+  </si>
+  <si>
+    <t>הִתְפַּקַּדְתִּי</t>
+  </si>
+  <si>
+    <t>הִתְפַּקְּדוּ</t>
+  </si>
+  <si>
+    <t>הִתְפַּקַּדְתֶּם</t>
+  </si>
+  <si>
+    <t>הִתְפַּקַּדְתֶּן</t>
+  </si>
+  <si>
+    <t>הִתְפַּקַּדְנוּ</t>
+  </si>
+  <si>
+    <t>יִתְפַּקֵּד</t>
+  </si>
+  <si>
+    <t>תִּתְפַּקֵּד</t>
+  </si>
+  <si>
+    <t>תִּתְפַּקְּדִי</t>
+  </si>
+  <si>
+    <t>אֶתְפַּקֵּד</t>
+  </si>
+  <si>
+    <t>יְתְפַּקְּדוּ</t>
+  </si>
+  <si>
+    <t>תִּתְפַּקֵּדְנָה</t>
+  </si>
+  <si>
+    <t>תִּתְפַּקְּדוּ</t>
+  </si>
+  <si>
+    <t>נְתפַּקֵּד</t>
+  </si>
+  <si>
+    <t>וַיִּתְפַּקֵּד</t>
+  </si>
+  <si>
+    <t>יִתְפַּקֵּד</t>
+  </si>
+  <si>
+    <t>אֶתְפַּקְּדָה</t>
+  </si>
+  <si>
+    <t>הִתְפַּקֵּד</t>
+  </si>
+  <si>
+    <t>הִתְפַּקְּדִי</t>
+  </si>
+  <si>
+    <t>הִתְפַּקֵּדְנָה</t>
+  </si>
+  <si>
+    <t>פַּקֵּדְנָה</t>
+  </si>
+  <si>
+    <t>מְפַקְּדָה</t>
+  </si>
+  <si>
+    <t>מִתְפַּקֵּד</t>
+  </si>
+  <si>
+    <t>מִתְפַּקְּדָה</t>
+  </si>
+  <si>
+    <t>מִתְפַּקְּדִים</t>
+  </si>
+  <si>
+    <t>מִתְפַּקְּדוֹת</t>
+  </si>
+  <si>
+    <t>הִתְפַּקֵּד,הִתְפַּקֹּד</t>
+  </si>
+  <si>
+    <t>נִפְקַדְנוּ</t>
+  </si>
+  <si>
+    <t>הִפְקִיד</t>
+  </si>
+  <si>
+    <t>הִפְקִידָה</t>
+  </si>
+  <si>
+    <t>הִפְקַדְתָּ</t>
+  </si>
+  <si>
+    <t>הִפְקַדְתְּ</t>
+  </si>
+  <si>
+    <t>הִפְקַדְתִּי</t>
+  </si>
+  <si>
+    <t>הִפְקִידוּ</t>
+  </si>
+  <si>
+    <t>הִפְקַדְתֶּם</t>
+  </si>
+  <si>
+    <t>הִפְקַדְתֶּן</t>
+  </si>
+  <si>
+    <t>הִפְקַדְנוּ</t>
+  </si>
+  <si>
+    <t>יַפְקִיד</t>
+  </si>
+  <si>
+    <t>תַּפְקִיד</t>
+  </si>
+  <si>
+    <t>תַּפְקִידִי</t>
+  </si>
+  <si>
+    <t>אַפְקִיד</t>
+  </si>
+  <si>
+    <t>יִפְקִידוּ</t>
+  </si>
+  <si>
+    <t>תַּפְקֵדְנָה</t>
+  </si>
+  <si>
+    <t>תַּפְקִידוּ</t>
+  </si>
+  <si>
+    <t>נִפְקִיד</t>
+  </si>
+  <si>
+    <t>וַיַּפְקֵד</t>
+  </si>
+  <si>
+    <t>יַפְקֵד</t>
+  </si>
+  <si>
+    <t>אַפְקִידָה</t>
+  </si>
+  <si>
+    <t>הַפְקֵד</t>
+  </si>
+  <si>
+    <t>הַפְקִידִי</t>
+  </si>
+  <si>
+    <t>הַפְקִידוּ</t>
+  </si>
+  <si>
+    <t>הַפְקֵדְנָה</t>
+  </si>
+  <si>
+    <t>מַפְקִיד</t>
+  </si>
+  <si>
+    <t>מַפְקִידָה</t>
+  </si>
+  <si>
+    <t>מַפְקִידִים</t>
+  </si>
+  <si>
+    <t>מַפְקִידוֹת</t>
+  </si>
+  <si>
+    <t>הַפְקִיד</t>
+  </si>
+  <si>
+    <t>הָפְקַד</t>
+  </si>
+  <si>
+    <t>הָפְקְדָה</t>
+  </si>
+  <si>
+    <t>הָפְקַדְתָּ</t>
+  </si>
+  <si>
+    <t>הָפְקַדְתְּ</t>
+  </si>
+  <si>
+    <t>הָפְקַדְתִּי</t>
+  </si>
+  <si>
+    <t>הָפְקְדוּ</t>
+  </si>
+  <si>
+    <t>הָפְקַדְתֶּם</t>
+  </si>
+  <si>
+    <t>הָפְקַדְתֶּן</t>
+  </si>
+  <si>
+    <t>הָפְקַדְנוּ</t>
+  </si>
+  <si>
+    <t>יָפְקַד</t>
+  </si>
+  <si>
+    <t>תָּפְקַד</t>
+  </si>
+  <si>
+    <t>תָּפְקְדִי</t>
+  </si>
+  <si>
+    <t>אָפְקַד</t>
+  </si>
+  <si>
+    <t>יָפְקְדוּ</t>
+  </si>
+  <si>
+    <t>תָּפְקַדְנָה</t>
+  </si>
+  <si>
+    <t>תָּפְקְדוּ</t>
+  </si>
+  <si>
+    <t>נָפְקַד</t>
+  </si>
+  <si>
+    <t>וַיָּפְקַד</t>
+  </si>
+  <si>
+    <t>אָפְקְדָה</t>
+  </si>
+  <si>
+    <t>מָפְקָד</t>
+  </si>
+  <si>
+    <t>מָפְקָדָה</t>
+  </si>
+  <si>
+    <t>מָפְקָדִים</t>
+  </si>
+  <si>
+    <t>מָפְקָדוֹת</t>
+  </si>
+  <si>
+    <t>הָפְקֵד</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +732,31 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="CaIibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,13 +779,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,22 +1084,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="15.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="14.4">
       <c r="A1" s="2"/>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -519,479 +1120,891 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="27.6" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="C24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="C25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="G25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="C26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="B27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="C27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="G27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="C28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="G28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="C29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>167</v>
+      </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="G29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>199</v>
+      </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="C30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="G30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="C31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="G31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="C32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="F32" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I32" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="C33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="F33" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="C34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="F34" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I34" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="C35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="F35" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I35" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30">
       <c r="A36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="63">
+      <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="C37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>226</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
